--- a/Homework 4/trace (1).xlsx
+++ b/Homework 4/trace (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpavlicek/Documents/2022 Fall/ICS-212/Homework 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavli\Documents\ICS-212\Homework 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300392A-51DF-BB49-916F-9BF5B4CB568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384D178-E6AC-4C6C-BE22-D428D08E6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="500" windowWidth="16980" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="18615" windowWidth="28800" windowHeight="6765" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,16 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,8 +732,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,53 +1125,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1195,41 +1195,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>1000</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1275,7 +1275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>1008</v>
       </c>
@@ -1300,11 +1300,11 @@
       <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>1012</v>
       </c>
@@ -1329,11 +1329,11 @@
       <c r="J19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>1042</v>
       </c>
@@ -1358,11 +1358,11 @@
       <c r="J20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>1092</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="2">
@@ -1387,11 +1387,11 @@
       <c r="J21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>1100</v>
       </c>
@@ -1404,11 +1404,11 @@
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>1108</v>
       </c>
@@ -1421,11 +1421,11 @@
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>1116</v>
       </c>
@@ -1438,11 +1438,11 @@
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>1124</v>
       </c>
@@ -1459,41 +1459,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" ht="6.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="H29" s="9" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="H29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>1000</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="7">
         <v>2000</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>1008</v>
       </c>
@@ -1564,11 +1564,11 @@
       <c r="J32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="7">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>1012</v>
       </c>
@@ -1593,11 +1593,11 @@
       <c r="J33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>1042</v>
       </c>
@@ -1622,11 +1622,11 @@
       <c r="J34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>1092</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="2">
@@ -1651,11 +1651,11 @@
       <c r="J35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>1100</v>
       </c>
@@ -1668,11 +1668,11 @@
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>1108</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -1701,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>1116</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H38" s="2">
@@ -1730,7 +1730,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>1124</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H39" s="2">
@@ -1759,7 +1759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1778,7 +1778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1797,14 +1797,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1823,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1838,11 +1838,11 @@
       <c r="J44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1857,11 +1857,11 @@
       <c r="J45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1876,11 +1876,11 @@
       <c r="J46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1895,56 +1895,56 @@
       <c r="J47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="50" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="50" spans="2:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="H52" s="9" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="H52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>1000</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="7">
         <v>2000</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -1990,7 +1990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>1008</v>
       </c>
@@ -2015,11 +2015,11 @@
       <c r="J55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>1012</v>
       </c>
@@ -2044,11 +2044,11 @@
       <c r="J56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>1042</v>
       </c>
@@ -2073,11 +2073,11 @@
       <c r="J57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>1092</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H58" s="2">
@@ -2102,11 +2102,11 @@
       <c r="J58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>1100</v>
       </c>
@@ -2119,11 +2119,11 @@
       <c r="E59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>1108</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -2152,7 +2152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>1116</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H61" s="2">
@@ -2181,7 +2181,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>1124</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="E62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H62" s="2">
@@ -2210,7 +2210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2229,7 +2229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2248,14 +2248,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2274,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H67" s="2">
         <v>2204</v>
       </c>
@@ -2284,11 +2284,11 @@
       <c r="J67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H68" s="2">
         <v>2208</v>
       </c>
@@ -2298,11 +2298,11 @@
       <c r="J68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H69" s="2">
         <v>2238</v>
       </c>
@@ -2312,11 +2312,11 @@
       <c r="J69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H70" s="2">
         <v>2298</v>
       </c>
@@ -2326,7 +2326,7 @@
       <c r="J70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="7" t="s">
         <v>62</v>
       </c>
     </row>
